--- a/task2.xlsx
+++ b/task2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/klibw_connect_ust_hk/Documents/ISDN2601/25-fall-isdn2601-lab1-koilkl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20BFAE5B-F265-8D4A-9C51-CA431799DFF0}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D151FD8-7571-3748-88D1-BB2EBE4BE6FB}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1180" windowWidth="27640" windowHeight="16720" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
+    <workbookView xWindow="1080" yWindow="1160" windowWidth="27640" windowHeight="16720" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,67 +99,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>mV</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> - mA</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -190,6 +130,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.6356723179350414E-2"/>
+                  <c:y val="8.5375791196425181E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$B$1:$B$256</c:f>
@@ -197,772 +187,772 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="256"/>
                 <c:pt idx="0">
-                  <c:v>6.45</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.73</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17.73</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12.09</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>12.89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>31.43</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>25.79</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>24.18</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>15.31</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>37.07</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30.62</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>43.52</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>29.82</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>26.59</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>47.55</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>20.95</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>49.16</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45.93</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>49.96</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.06</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>39.49</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>40.29</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>49.96</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>27.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>31.43</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>52.38</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>18.53</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>59.63</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>65.27</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>17.73</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>43.52</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>37.880000000000003</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>53.99</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>31.43</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>55.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>39.49</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>50.77</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>62.86</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>24.98</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>50.77</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>62.86</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>51.58</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>63.66</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>57.22</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>60.44</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.53</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>33.85</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>51.58</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>67.69</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>18.53</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>51.58</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>39.49</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>58.83</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>16.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>45.93</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>65.27</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>38.68</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>66.89</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="210">
                   <c:v>21.76</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.59</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.82</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30.62</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28.21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>38.68</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.68</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37.07</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>39.49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>41.9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>37.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="211">
+                  <c:v>51.58</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>72.53</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>77.36</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44.32</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>60.44</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>51.58</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>49.16</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>66.89</c:v>
+                </c:pt>
+                <c:pt idx="221">
                   <c:v>49.96</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>45.93</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>38.68</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>44.32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38.68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>37.880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43.52</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="222">
+                  <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>66.08</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>53.99</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>57.22</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>82.2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>81.39</c:v>
+                </c:pt>
+                <c:pt idx="228">
                   <c:v>51.58</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>40.29</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>38.68</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>51.58</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>40.29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>51.58</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="229">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>74.14</c:v>
+                </c:pt>
+                <c:pt idx="231">
                   <c:v>59.63</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>44.32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>36.26</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>63.66</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>49.96</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43.52</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>40.29</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="232">
                   <c:v>64.47</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>49.96</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44.32</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="233">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>57.22</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>66.89</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>78.97</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>78.17</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>64.47</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>71.72</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>62.05</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>78.17</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>70.11</c:v>
+                </c:pt>
+                <c:pt idx="247">
                   <c:v>69.3</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>57.22</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>46.74</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40.29</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>72.53</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>53.19</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46.74</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>52.38</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>66.89</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>48.35</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>46.74</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>74.14</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>66.89</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>50.77</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>76.56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>54.8</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45.93</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>85.42</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>51.58</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>44.32</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>63.66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>49.96</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>78.97</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>55.6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>51.58</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>95.9</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>65.27</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>50.77</c:v>
-                </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="248">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>73.33</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>75.75</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>79.78</c:v>
+                </c:pt>
+                <c:pt idx="253">
                   <c:v>69.3</c:v>
                 </c:pt>
-                <c:pt idx="74">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>62.86</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>48.35</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="254">
+                  <c:v>75.75</c:v>
+                </c:pt>
+                <c:pt idx="255">
                   <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>53.99</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>99.93</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>65.27</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>51.58</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>97.51</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>56.41</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>61.25</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>108.79</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>79.78</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>55.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>78.17</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>104.76</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>71.72</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>77.36</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>115.24</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>79.78</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>53.99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>103.96</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>71.72</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>53.99</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>107.18</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>92.67</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>76.56</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>116.85</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>70.11</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>67.69</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>108.79</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>100.73</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>70.11</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>80.59</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>119.27</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>89.45</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>62.86</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>93.48</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>120.88</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>131.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>64.47</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>107.99</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>120.07</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>79.78</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>76.56</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>116.04</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>105.57</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>73.33</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>91.87</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>130.55000000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>86.23</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>128.94</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>105.57</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>70.92</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>103.15</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>134.58000000000001</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>90.26</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>75.75</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>119.27</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>131.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>89.45</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>94.29</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>95.9</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>94.29</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>138.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>132.97</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>104.76</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>140.22</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>114.43</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>78.17</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>113.63</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>141.03</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>88.64</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>115.24</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>116.04</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>88.64</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>124.1</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>146.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>107.18</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>99.12</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>131.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>91.06</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>132.16</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>103.15</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>108.79</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>141.03</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>143.44</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>92.67</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>116.04</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>144.25</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>126.52</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>98.32</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>128.94</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>152.31</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>102.34</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>121.68</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>146.66999999999999</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>107.99</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>131.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>149.88999999999999</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>118.46</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>116.85</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>147.47</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>153.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>116.04</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>143.44</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>154.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>120.07</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>117.66</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>149.88999999999999</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>154.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>114.43</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>149.88999999999999</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>145.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>116.04</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>153.91999999999999</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>161.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>117.66</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>137.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>154.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>154.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>124.1</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>145.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>160.37</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>128.94</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>159.56</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>132.97</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>158.75</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>141.83000000000001</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>141.03</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>153.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>163.59</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>131.36000000000001</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>144.25</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>156.34</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>163.59</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>152.31</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>157.13999999999999</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>164.4</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>138.61000000000001</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>150.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>161.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>163.59</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>145.86000000000001</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>158.75</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>162.78</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>153.11000000000001</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>147.47</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>166.81</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>165.2</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>154.72999999999999</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>167.62</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>167.62</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>155.53</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>151.5</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>158.75</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>166.81</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>149.88999999999999</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>161.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>166.01</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>167.62</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>167.62</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>167.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,769 +967,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.03</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.05</c:v>
+                  <c:v>12.89</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.04</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.05</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.06</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.06</c:v>
+                  <c:v>8.86</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.06</c:v>
+                  <c:v>8.86</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.04</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.06</c:v>
+                  <c:v>10.48</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.05</c:v>
+                  <c:v>12.89</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.06</c:v>
+                  <c:v>6.04</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.05</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>16.52</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.04</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.05</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.06</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>19.34</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.05</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.06</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.06</c:v>
+                  <c:v>15.71</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.06</c:v>
+                  <c:v>12.89</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.06</c:v>
+                  <c:v>12.09</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.06</c:v>
+                  <c:v>7.66</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.06</c:v>
+                  <c:v>18.53</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>15.31</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.06</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.05</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>21.76</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.05</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.06</c:v>
+                  <c:v>14.91</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.06</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.08</c:v>
+                  <c:v>23.77</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.05</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>10.48</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>24.58</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.04</c:v>
+                  <c:v>2.42</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>22.97</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.06</c:v>
+                  <c:v>19.34</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.04</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.06</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.05</c:v>
+                  <c:v>3.63</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.06</c:v>
+                  <c:v>4.03</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>19.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.06</c:v>
+                  <c:v>20.149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.04</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>6.85</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.08</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.05</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>15.71</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.08</c:v>
+                  <c:v>26.19</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.05</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>29.82</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.08</c:v>
+                  <c:v>32.64</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.05</c:v>
+                  <c:v>10.07</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>20.95</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.05</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.06</c:v>
+                  <c:v>8.86</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.08</c:v>
+                  <c:v>22.16</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>21.76</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.05</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.08</c:v>
+                  <c:v>18.940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.05</c:v>
+                  <c:v>2.82</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>15.71</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.08</c:v>
+                  <c:v>27.8</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>19.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.05</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>25.38</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.08</c:v>
+                  <c:v>31.43</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.06</c:v>
+                  <c:v>12.49</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.06</c:v>
+                  <c:v>11.68</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.08</c:v>
+                  <c:v>25.38</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>31.43</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.06</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.08</c:v>
+                  <c:v>31.83</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.06</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.06</c:v>
+                  <c:v>19.34</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.08</c:v>
+                  <c:v>28.61</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.08</c:v>
+                  <c:v>30.22</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.05</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>20.95</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>16.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.08</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.08</c:v>
+                  <c:v>33.85</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.06</c:v>
+                  <c:v>9.27</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.08</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.08</c:v>
+                  <c:v>19.739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.06</c:v>
+                  <c:v>19.34</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.08</c:v>
+                  <c:v>29.41</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.08</c:v>
+                  <c:v>34.65</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>8.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>22.97</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.08</c:v>
+                  <c:v>32.64</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>19.34</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.08</c:v>
+                  <c:v>33.44</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.08</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>10.88</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.08</c:v>
+                  <c:v>36.26</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.09</c:v>
+                  <c:v>38.68</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.06</c:v>
+                  <c:v>22.16</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.08</c:v>
+                  <c:v>30.22</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.08</c:v>
+                  <c:v>24.58</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.08</c:v>
+                  <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.09</c:v>
+                  <c:v>33.44</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>24.98</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.08</c:v>
+                  <c:v>31.03</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.09</c:v>
+                  <c:v>33.04</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.09</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>28.61</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.08</c:v>
+                  <c:v>41.1</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.09</c:v>
+                  <c:v>40.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.08</c:v>
+                  <c:v>25.79</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.08</c:v>
+                  <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.09</c:v>
+                  <c:v>37.07</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.09</c:v>
+                  <c:v>29.82</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.08</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.09</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.08</c:v>
+                  <c:v>28.61</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.08</c:v>
+                  <c:v>33.44</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.09</c:v>
+                  <c:v>39.49</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.09</c:v>
+                  <c:v>39.08</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.08</c:v>
+                  <c:v>32.229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.08</c:v>
+                  <c:v>35.86</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.09</c:v>
+                  <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.08</c:v>
+                  <c:v>31.03</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.09</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.09</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.09</c:v>
+                  <c:v>39.08</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.08</c:v>
+                  <c:v>35.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.09</c:v>
+                  <c:v>34.65</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.09</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.09</c:v>
+                  <c:v>36.67</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.08</c:v>
+                  <c:v>37.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.09</c:v>
+                  <c:v>34.25</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.09</c:v>
+                  <c:v>39.89</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.09</c:v>
+                  <c:v>34.65</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.09</c:v>
+                  <c:v>37.880000000000003</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.09</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1783,8 +1773,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>mV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1845,8 +1904,77 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>mA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1894,6 +2022,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2498,16 +2657,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>156307</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100762</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>566909</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>611274</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>122534</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200673</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>170277</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2854,8 +3013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39F54F-8904-8C49-A59B-80C0815D2603}">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="133" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2865,2047 +3024,2047 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>6.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>12.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>21.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>26.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>26.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>29.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>33.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>30.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>28.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>38.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>38.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>36.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>37.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>39.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>41.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>37.880000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>49.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>45.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>38.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>37.880000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>44.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B22">
-        <v>38.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B23">
-        <v>37.880000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>43.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>40.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>38.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>54.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>40.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>59.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>44.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>36.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>63.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>49.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>43.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>40.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B39">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>49.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>44.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B42">
-        <v>69.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>57.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>0.03</v>
+        <v>2.82</v>
       </c>
       <c r="B44">
-        <v>46.74</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>40.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B46">
-        <v>72.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B47">
-        <v>53.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B48">
-        <v>46.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>52.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>66.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>48.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="B52">
-        <v>46.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B53">
-        <v>74.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>66.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>50.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B56">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B57">
-        <v>76.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B58">
-        <v>54.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>45.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>85.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B63">
-        <v>44.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>90.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>63.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>49.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>0.05</v>
+        <v>12.89</v>
       </c>
       <c r="B67">
-        <v>64.47</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>0.04</v>
+        <v>13.7</v>
       </c>
       <c r="B68">
-        <v>78.97</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>55.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B70">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>0.05</v>
+        <v>1.61</v>
       </c>
       <c r="B71">
-        <v>95.9</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B72">
-        <v>65.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B73">
-        <v>50.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B74">
-        <v>69.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B75">
-        <v>90.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B76">
-        <v>62.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B77">
-        <v>48.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>0.06</v>
+        <v>4.03</v>
       </c>
       <c r="B78">
-        <v>90.26</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B80">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B81">
-        <v>53.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B82">
-        <v>99.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B83">
-        <v>65.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>51.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>0.06</v>
+        <v>8.86</v>
       </c>
       <c r="B85">
-        <v>97.51</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B86">
-        <v>90.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>56.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B88">
-        <v>61.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>0.06</v>
+        <v>8.86</v>
       </c>
       <c r="B89">
-        <v>108.79</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="B90">
-        <v>79.78</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>55.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>0.06</v>
+        <v>10.48</v>
       </c>
       <c r="B92">
-        <v>78.17</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>104.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>71.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="B95">
-        <v>77.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>0.05</v>
+        <v>12.89</v>
       </c>
       <c r="B96">
-        <v>115.24</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B97">
-        <v>79.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B98">
-        <v>53.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>0.06</v>
+        <v>6.04</v>
       </c>
       <c r="B99">
-        <v>90.26</v>
+        <v>12.09</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>0.05</v>
+        <v>4.03</v>
       </c>
       <c r="B100">
-        <v>103.96</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B101">
-        <v>71.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>53.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>7.0000000000000007E-2</v>
+        <v>16.52</v>
       </c>
       <c r="B103">
-        <v>107.18</v>
+        <v>33.04</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>0.04</v>
+        <v>3.63</v>
       </c>
       <c r="B104">
-        <v>92.67</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B105">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>0.05</v>
+        <v>11.68</v>
       </c>
       <c r="B106">
-        <v>76.56</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>0.06</v>
+        <v>6.45</v>
       </c>
       <c r="B107">
-        <v>116.85</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B108">
-        <v>70.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B109">
-        <v>67.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>7.0000000000000007E-2</v>
+        <v>19.34</v>
       </c>
       <c r="B110">
-        <v>108.79</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>0.05</v>
+        <v>4.03</v>
       </c>
       <c r="B111">
-        <v>100.73</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="B112">
-        <v>70.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>0.06</v>
+        <v>4.03</v>
       </c>
       <c r="B113">
-        <v>80.59</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>0.06</v>
+        <v>15.71</v>
       </c>
       <c r="B114">
-        <v>119.27</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>89.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>62.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>0.06</v>
+        <v>12.89</v>
       </c>
       <c r="B117">
-        <v>93.48</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>0.06</v>
+        <v>12.09</v>
       </c>
       <c r="B118">
-        <v>120.88</v>
+        <v>24.18</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B119">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>0.06</v>
+        <v>7.66</v>
       </c>
       <c r="B120">
-        <v>90.26</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>0.06</v>
+        <v>18.53</v>
       </c>
       <c r="B121">
-        <v>131.36000000000001</v>
+        <v>37.07</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B122">
-        <v>90.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B123">
-        <v>64.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>7.0000000000000007E-2</v>
+        <v>15.31</v>
       </c>
       <c r="B124">
-        <v>107.99</v>
+        <v>30.62</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>0.06</v>
+        <v>11.68</v>
       </c>
       <c r="B125">
-        <v>120.07</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>79.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>0.05</v>
+        <v>1.21</v>
       </c>
       <c r="B127">
-        <v>76.56</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>7.0000000000000007E-2</v>
+        <v>21.76</v>
       </c>
       <c r="B128">
-        <v>116.04</v>
+        <v>43.52</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>0.05</v>
+        <v>6.85</v>
       </c>
       <c r="B129">
-        <v>105.57</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B130">
-        <v>73.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>0.06</v>
+        <v>14.91</v>
       </c>
       <c r="B131">
-        <v>91.87</v>
+        <v>29.82</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>7.0000000000000007E-2</v>
+        <v>13.3</v>
       </c>
       <c r="B132">
-        <v>130.55000000000001</v>
+        <v>26.59</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B133">
-        <v>86.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>0.06</v>
+        <v>6.45</v>
       </c>
       <c r="B134">
-        <v>90.26</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0.08</v>
+        <v>23.77</v>
       </c>
       <c r="B135">
-        <v>128.94</v>
+        <v>47.55</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>0.05</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="B136">
-        <v>105.57</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B137">
-        <v>70.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>7.0000000000000007E-2</v>
+        <v>10.48</v>
       </c>
       <c r="B138">
-        <v>103.15</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>7.0000000000000007E-2</v>
+        <v>24.58</v>
       </c>
       <c r="B139">
-        <v>134.58000000000001</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>0.04</v>
+        <v>2.42</v>
       </c>
       <c r="B140">
-        <v>90.26</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B141">
-        <v>75.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>7.0000000000000007E-2</v>
+        <v>22.97</v>
       </c>
       <c r="B142">
-        <v>119.27</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>0.06</v>
+        <v>19.34</v>
       </c>
       <c r="B143">
-        <v>131.36000000000001</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>0.04</v>
+        <v>1.61</v>
       </c>
       <c r="B144">
-        <v>89.45</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>0.06</v>
+        <v>6.45</v>
       </c>
       <c r="B145">
-        <v>94.29</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>7.0000000000000007E-2</v>
+        <v>24.98</v>
       </c>
       <c r="B146">
-        <v>141.83000000000001</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>0.05</v>
+        <v>3.63</v>
       </c>
       <c r="B147">
-        <v>95.9</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>0.06</v>
+        <v>4.03</v>
       </c>
       <c r="B148">
-        <v>94.29</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>7.0000000000000007E-2</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="B149">
-        <v>138.61000000000001</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>0.06</v>
+        <v>20.149999999999999</v>
       </c>
       <c r="B150">
-        <v>132.97</v>
+        <v>40.29</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>7.0000000000000007E-2</v>
+        <v>6.85</v>
       </c>
       <c r="B152">
-        <v>104.76</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>0.08</v>
+        <v>24.98</v>
       </c>
       <c r="B153">
-        <v>140.22</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>0.05</v>
+        <v>13.7</v>
       </c>
       <c r="B154">
-        <v>114.43</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B155">
-        <v>78.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>7.0000000000000007E-2</v>
+        <v>15.71</v>
       </c>
       <c r="B156">
-        <v>113.63</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>0.08</v>
+        <v>26.19</v>
       </c>
       <c r="B157">
-        <v>141.03</v>
+        <v>52.38</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>0.05</v>
+        <v>9.27</v>
       </c>
       <c r="B158">
-        <v>88.64</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>7.0000000000000007E-2</v>
+        <v>29.82</v>
       </c>
       <c r="B159">
-        <v>115.24</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>0.08</v>
+        <v>32.64</v>
       </c>
       <c r="B160">
-        <v>137</v>
+        <v>65.27</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>0.05</v>
+        <v>10.07</v>
       </c>
       <c r="B161">
-        <v>116.04</v>
+        <v>20.149999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="B162">
-        <v>88.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>7.0000000000000007E-2</v>
+        <v>20.95</v>
       </c>
       <c r="B163">
-        <v>124.1</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>7.0000000000000007E-2</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B164">
-        <v>146.66999999999999</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>0.05</v>
+        <v>6.45</v>
       </c>
       <c r="B165">
-        <v>107.18</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>0.06</v>
+        <v>8.86</v>
       </c>
       <c r="B166">
-        <v>99.12</v>
+        <v>17.73</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>0.08</v>
+        <v>22.16</v>
       </c>
       <c r="B167">
-        <v>131.36000000000001</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>7.0000000000000007E-2</v>
+        <v>21.76</v>
       </c>
       <c r="B168">
-        <v>141.83000000000001</v>
+        <v>43.52</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>0.05</v>
+        <v>1.61</v>
       </c>
       <c r="B169">
-        <v>91.06</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>0.08</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="B170">
-        <v>132.16</v>
+        <v>37.880000000000003</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>7.0000000000000007E-2</v>
+        <v>27</v>
       </c>
       <c r="B171">
-        <v>150.69999999999999</v>
+        <v>53.99</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>0.05</v>
+        <v>2.82</v>
       </c>
       <c r="B172">
-        <v>103.15</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>7.0000000000000007E-2</v>
+        <v>15.71</v>
       </c>
       <c r="B173">
-        <v>108.79</v>
+        <v>31.43</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>0.08</v>
+        <v>27.8</v>
       </c>
       <c r="B174">
-        <v>141.03</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>7.0000000000000007E-2</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="B175">
-        <v>143.44</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>0.05</v>
+        <v>6.45</v>
       </c>
       <c r="B176">
-        <v>92.67</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>7.0000000000000007E-2</v>
+        <v>25.38</v>
       </c>
       <c r="B177">
-        <v>116.04</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>0.08</v>
+        <v>31.43</v>
       </c>
       <c r="B178">
-        <v>144.25</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>0.06</v>
+        <v>12.49</v>
       </c>
       <c r="B179">
-        <v>126.52</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>0.06</v>
+        <v>11.68</v>
       </c>
       <c r="B180">
-        <v>98.32</v>
+        <v>23.37</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>0.08</v>
+        <v>25.38</v>
       </c>
       <c r="B181">
-        <v>128.94</v>
+        <v>50.77</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>7.0000000000000007E-2</v>
+        <v>31.43</v>
       </c>
       <c r="B182">
-        <v>152.31</v>
+        <v>62.86</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>0.06</v>
+        <v>6.45</v>
       </c>
       <c r="B183">
-        <v>102.34</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>7.0000000000000007E-2</v>
+        <v>25.79</v>
       </c>
       <c r="B184">
-        <v>121.68</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>0.08</v>
+        <v>31.83</v>
       </c>
       <c r="B185">
-        <v>146.66999999999999</v>
+        <v>63.66</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>0.06</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="B186">
-        <v>137</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>0.06</v>
+        <v>19.34</v>
       </c>
       <c r="B187">
-        <v>107.99</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>0.08</v>
+        <v>28.61</v>
       </c>
       <c r="B188">
-        <v>131.36000000000001</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>0.08</v>
+        <v>30.22</v>
       </c>
       <c r="B189">
-        <v>149.88999999999999</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>0.05</v>
+        <v>9.27</v>
       </c>
       <c r="B190">
-        <v>118.46</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>7.0000000000000007E-2</v>
+        <v>20.95</v>
       </c>
       <c r="B191">
-        <v>116.85</v>
+        <v>41.9</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B192">
-        <v>147.47</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B193">
-        <v>153.91999999999999</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>7.0000000000000007E-2</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="B194">
-        <v>116.04</v>
+        <v>33.85</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>0.08</v>
+        <v>25.79</v>
       </c>
       <c r="B195">
-        <v>143.44</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>0.08</v>
+        <v>33.85</v>
       </c>
       <c r="B196">
-        <v>154.72999999999999</v>
+        <v>67.69</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>0.06</v>
+        <v>9.27</v>
       </c>
       <c r="B197">
-        <v>120.07</v>
+        <v>18.53</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>7.0000000000000007E-2</v>
+        <v>25.79</v>
       </c>
       <c r="B198">
-        <v>117.66</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>0.08</v>
+        <v>34.25</v>
       </c>
       <c r="B199">
-        <v>149.88999999999999</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>0.08</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="B200">
-        <v>154.72999999999999</v>
+        <v>39.49</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>0.06</v>
+        <v>19.34</v>
       </c>
       <c r="B201">
-        <v>114.43</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>0.08</v>
+        <v>29.41</v>
       </c>
       <c r="B202">
-        <v>141.83000000000001</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>0.08</v>
+        <v>34.65</v>
       </c>
       <c r="B203">
-        <v>149.88999999999999</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>7.0000000000000007E-2</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="B204">
-        <v>145.86000000000001</v>
+        <v>16.920000000000002</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>7.0000000000000007E-2</v>
+        <v>22.97</v>
       </c>
       <c r="B205">
-        <v>116.04</v>
+        <v>45.93</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B206">
-        <v>153.91999999999999</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>0.08</v>
+        <v>32.64</v>
       </c>
       <c r="B207">
-        <v>161.97999999999999</v>
+        <v>65.27</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>7.0000000000000007E-2</v>
+        <v>19.34</v>
       </c>
       <c r="B208">
-        <v>117.66</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>0.08</v>
+        <v>33.44</v>
       </c>
       <c r="B209">
-        <v>137.80000000000001</v>
+        <v>66.89</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>0.08</v>
+        <v>41.1</v>
       </c>
       <c r="B210">
-        <v>154.72999999999999</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>7.0000000000000007E-2</v>
+        <v>10.88</v>
       </c>
       <c r="B211">
-        <v>154.72999999999999</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>7.0000000000000007E-2</v>
+        <v>25.79</v>
       </c>
       <c r="B212">
-        <v>124.1</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>0.08</v>
+        <v>36.26</v>
       </c>
       <c r="B213">
-        <v>145.86000000000001</v>
+        <v>72.53</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>0.09</v>
+        <v>38.68</v>
       </c>
       <c r="B214">
-        <v>160.37</v>
+        <v>77.36</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>0.06</v>
+        <v>22.16</v>
       </c>
       <c r="B215">
-        <v>141.83000000000001</v>
+        <v>44.32</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>0.08</v>
+        <v>30.22</v>
       </c>
       <c r="B216">
-        <v>128.94</v>
+        <v>60.44</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B217">
-        <v>150.69999999999999</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>7.0000000000000007E-2</v>
+        <v>25.79</v>
       </c>
       <c r="B218">
-        <v>159.56</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>0.08</v>
+        <v>24.58</v>
       </c>
       <c r="B219">
-        <v>132.97</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>0.08</v>
+        <v>36.67</v>
       </c>
       <c r="B220">
-        <v>150.69999999999999</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>0.09</v>
+        <v>33.44</v>
       </c>
       <c r="B221">
-        <v>158.75</v>
+        <v>66.89</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>7.0000000000000007E-2</v>
+        <v>24.98</v>
       </c>
       <c r="B222">
-        <v>141.83000000000001</v>
+        <v>49.96</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>0.08</v>
+        <v>31.03</v>
       </c>
       <c r="B223">
-        <v>141.03</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>0.09</v>
+        <v>33.04</v>
       </c>
       <c r="B224">
-        <v>153.11000000000001</v>
+        <v>66.08</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>0.09</v>
+        <v>27</v>
       </c>
       <c r="B225">
-        <v>163.59</v>
+        <v>53.99</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>7.0000000000000007E-2</v>
+        <v>28.61</v>
       </c>
       <c r="B226">
-        <v>131.36000000000001</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>0.08</v>
+        <v>41.1</v>
       </c>
       <c r="B227">
-        <v>144.25</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>0.09</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="B228">
-        <v>156.34</v>
+        <v>81.39</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>0.08</v>
+        <v>25.79</v>
       </c>
       <c r="B229">
-        <v>163.59</v>
+        <v>51.58</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>0.08</v>
+        <v>36.67</v>
       </c>
       <c r="B230">
-        <v>152.31</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>0.09</v>
+        <v>37.07</v>
       </c>
       <c r="B231">
-        <v>157.13999999999999</v>
+        <v>74.14</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>0.09</v>
+        <v>29.82</v>
       </c>
       <c r="B232">
-        <v>164.4</v>
+        <v>59.63</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B233">
-        <v>138.61000000000001</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>0.08</v>
+        <v>39.89</v>
       </c>
       <c r="B234">
-        <v>150.69999999999999</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>0.09</v>
+        <v>39.89</v>
       </c>
       <c r="B235">
-        <v>161.97999999999999</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>0.08</v>
+        <v>28.61</v>
       </c>
       <c r="B236">
-        <v>163.59</v>
+        <v>57.22</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>0.08</v>
+        <v>33.44</v>
       </c>
       <c r="B237">
-        <v>145.86000000000001</v>
+        <v>66.89</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>0.09</v>
+        <v>39.49</v>
       </c>
       <c r="B238">
-        <v>158.75</v>
+        <v>78.97</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>0.09</v>
+        <v>39.08</v>
       </c>
       <c r="B239">
-        <v>162.78</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>0.08</v>
+        <v>32.229999999999997</v>
       </c>
       <c r="B240">
-        <v>153.11000000000001</v>
+        <v>64.47</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>0.08</v>
+        <v>35.86</v>
       </c>
       <c r="B241">
-        <v>147.47</v>
+        <v>71.72</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>0.09</v>
+        <v>36.67</v>
       </c>
       <c r="B242">
-        <v>166.81</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>0.08</v>
+        <v>31.03</v>
       </c>
       <c r="B243">
-        <v>165.2</v>
+        <v>62.05</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>0.09</v>
+        <v>39.89</v>
       </c>
       <c r="B244">
-        <v>154.72999999999999</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>0.09</v>
+        <v>39.89</v>
       </c>
       <c r="B245">
-        <v>167.62</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>0.09</v>
+        <v>39.08</v>
       </c>
       <c r="B246">
-        <v>167.62</v>
+        <v>78.17</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>0.08</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="B247">
-        <v>155.53</v>
+        <v>70.11</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>0.09</v>
+        <v>34.65</v>
       </c>
       <c r="B248">
-        <v>151.5</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>0.09</v>
+        <v>41.5</v>
       </c>
       <c r="B249">
-        <v>158.75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>0.09</v>
+        <v>36.67</v>
       </c>
       <c r="B250">
-        <v>166.81</v>
+        <v>73.33</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>0.08</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="B251">
-        <v>149.88999999999999</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>0.09</v>
+        <v>34.25</v>
       </c>
       <c r="B252">
-        <v>161.97999999999999</v>
+        <v>68.5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>0.09</v>
+        <v>39.89</v>
       </c>
       <c r="B253">
-        <v>166.01</v>
+        <v>79.78</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>0.09</v>
+        <v>34.65</v>
       </c>
       <c r="B254">
-        <v>167.62</v>
+        <v>69.3</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>0.09</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="B255">
-        <v>167.62</v>
+        <v>75.75</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>0.09</v>
+        <v>41.5</v>
       </c>
       <c r="B256">
-        <v>167.62</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/task2.xlsx
+++ b/task2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/klibw_connect_ust_hk/Documents/ISDN2601/25-fall-isdn2601-lab1-koilkl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D151FD8-7571-3748-88D1-BB2EBE4BE6FB}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5868040E-5C6E-A94C-8AB2-AF4A58800C09}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1160" windowWidth="27640" windowHeight="16720" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
+    <workbookView xWindow="1080" yWindow="1100" windowWidth="27640" windowHeight="16720" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1939,7 +1939,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>mA</a:t>
+                  <a:t>uA</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2694,6 +2694,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3014,7 +3018,7 @@
   <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B256"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/task2.xlsx
+++ b/task2.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/klibw_connect_ust_hk/Documents/ISDN2601/25-fall-isdn2601-lab1-koilkl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5868040E-5C6E-A94C-8AB2-AF4A58800C09}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{6C7D6BC5-B5B7-6449-A9D5-74EF70843C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BCE30C-EA8E-0244-898C-FA0B49828682}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1100" windowWidth="27640" windowHeight="16720" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" xr2:uid="{19D561E5-1E80-F34B-B5FE-7B21081EC0F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2097,7 +2119,2053 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$1:$K$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.8199999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.289E-5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.3699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.61E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4.0300000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.8599999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8599999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0000000000000003E-7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.048E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.289E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0399999999999998E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.0300000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.6520000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.63E-6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.168E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.9340000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.0300000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0300000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.571E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.289E-5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2089999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.6599999999999995E-6</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.853E-5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.5310000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.168E-5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.2100000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.1760000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.8499999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.491E-5</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.3300000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.3770000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.4600000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.048E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.4579999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.4200000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.2969999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.9340000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.61E-6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.4980000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.63E-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.0300000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.9739999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2.0149999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.8499999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.4980000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.3699999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.571E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2.6190000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.2699999999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.9819999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.2639999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.007E-5</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.0949999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8.8599999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.2160000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.1760000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.61E-6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.8940000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.6999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.8199999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.571E-5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.7800000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.9739999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.5379999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3.1430000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1.2490000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1.168E-5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.5379999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>3.1430000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.4500000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3.1829999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8.4600000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1.9340000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.8609999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.0219999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9.2699999999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2.0949999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1.6920000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.3850000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.2699999999999993E-6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.4249999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1.9739999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1.9340000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>2.9410000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.4649999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>8.4600000000000003E-6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>2.2969999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.2639999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1.9340000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.3439999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>4.1100000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.0880000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.6259999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.8680000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>2.2160000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.0219999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>2.4579999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.667E-5</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>3.3439999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>2.4980000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>3.1029999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>3.3040000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>2.6999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>2.8609999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.1100000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.07E-5</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>2.5789999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>3.667E-5</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>3.7070000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>2.9819999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>3.9889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>3.9889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2.8609999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>3.3439999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>3.9490000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>3.9079999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>3.2229999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>3.5859999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>3.667E-5</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>3.1029999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>3.9889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>3.9889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3.9079999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>3.5049999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>3.4649999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.1499999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>3.667E-5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3.7880000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>3.4249999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>3.9889999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>3.4649999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>3.7880000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.1499999999999999E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$1:$L$256</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="256"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.579E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.0600000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.7729999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7729999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.1000000000000006E-4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.095E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.579E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.209E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>8.0600000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.304E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.3370000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>8.0600000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>8.0600000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.143E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2.579E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.418E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.7069999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.0620000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.3370000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.4199999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.3520000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.9819999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.6589999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.7549999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.6920000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.095E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.9159999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.5929999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.2200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.9959999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7.2500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>8.0600000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.9490000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.0289999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.3699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.9959999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.7399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.143E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.2380000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.9630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.5269999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.0149999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.19E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1.7729999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>4.4319999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.3520000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.2200000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>3.7880000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.3990000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3.143E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.5600000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3.9490000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.0770000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.2859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.4979999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.3370000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.0770000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.2859999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.289E-2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.3659999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1.6920000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.722E-2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.0440000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1.8530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>4.19E-2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.3849999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.769E-2</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1.8530000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.9490000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>5.883E-2</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1.6920000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4.5929999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.5269999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.8679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.6890000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>8.2200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>2.1760000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>7.2529999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>7.7359999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>4.4319999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6.0440000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>4.9159999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7.3329999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6.6890000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.9959999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6.2049999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.608E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.3990000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>5.722E-2</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>8.2200000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>8.1390000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>5.1580000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.3329999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>7.4139999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>5.9630000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7.9780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>7.9780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>5.722E-2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6.6890000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7.8969999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>7.8170000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>6.447E-2</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>7.1719999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>7.3329999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.2049999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>7.9780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>7.9780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>7.8170000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7.0110000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>6.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>7.3329999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7.5749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>7.9780000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>6.93E-2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>7.5749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8AB-3C40-8888-CE4CD8ECBA75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1308641919"/>
+        <c:axId val="1308640127"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1308641919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>I(A)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308640127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1308640127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>U(V) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1308641919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2653,6 +4721,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2686,6 +5270,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>741249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>318746</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>141444</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62638D19-C932-8234-C91A-64E4C5E667B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3015,2060 +5635,3604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED39F54F-8904-8C49-A59B-80C0815D2603}">
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="I11" zoomScale="156" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K1" cm="1">
+        <f t="array" ref="K1:K256">A1:A256/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="L1" cm="1">
+        <f t="array" ref="L1:L256">B1:B256/1000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0</v>
       </c>
       <c r="B39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0</v>
       </c>
       <c r="B40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2.82</v>
       </c>
       <c r="B44">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>2.8199999999999997E-6</v>
+      </c>
+      <c r="L44">
+        <v>5.64E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>12.89</v>
       </c>
       <c r="B67">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>1.289E-5</v>
+      </c>
+      <c r="L67">
+        <v>2.579E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>13.7</v>
       </c>
       <c r="B68">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>1.3699999999999999E-5</v>
+      </c>
+      <c r="L68">
+        <v>2.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1.61</v>
       </c>
       <c r="B71">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>1.61E-6</v>
+      </c>
+      <c r="L71">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>4.03</v>
       </c>
       <c r="B78">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="L78">
+        <v>8.0600000000000012E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0</v>
       </c>
       <c r="B80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0</v>
       </c>
       <c r="B81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0</v>
       </c>
       <c r="B84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>8.86</v>
       </c>
       <c r="B85">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>8.8599999999999999E-6</v>
+      </c>
+      <c r="L85">
+        <v>1.7729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0</v>
       </c>
       <c r="B88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8.86</v>
       </c>
       <c r="B89">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>8.8599999999999999E-6</v>
+      </c>
+      <c r="L89">
+        <v>1.7729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.4</v>
       </c>
       <c r="B90">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>4.0000000000000003E-7</v>
+      </c>
+      <c r="L90">
+        <v>8.1000000000000006E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10.48</v>
       </c>
       <c r="B92">
         <v>20.95</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>1.048E-5</v>
+      </c>
+      <c r="L92">
+        <v>2.095E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>12.89</v>
       </c>
       <c r="B96">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>1.289E-5</v>
+      </c>
+      <c r="L96">
+        <v>2.579E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0</v>
       </c>
       <c r="B97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0</v>
       </c>
       <c r="B98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>6.04</v>
       </c>
       <c r="B99">
         <v>12.09</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>6.0399999999999998E-6</v>
+      </c>
+      <c r="L99">
+        <v>1.209E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4.03</v>
       </c>
       <c r="B100">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="L100">
+        <v>8.0600000000000012E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0</v>
       </c>
       <c r="B101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>0</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>16.52</v>
       </c>
       <c r="B103">
         <v>33.04</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K103">
+        <v>1.6520000000000001E-5</v>
+      </c>
+      <c r="L103">
+        <v>3.304E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3.63</v>
       </c>
       <c r="B104">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K104">
+        <v>3.63E-6</v>
+      </c>
+      <c r="L104">
+        <v>7.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>0</v>
       </c>
       <c r="B105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11.68</v>
       </c>
       <c r="B106">
         <v>23.37</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K106">
+        <v>1.168E-5</v>
+      </c>
+      <c r="L106">
+        <v>2.3370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6.45</v>
       </c>
       <c r="B107">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K107">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L107">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>0</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>0</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>19.34</v>
       </c>
       <c r="B110">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K110">
+        <v>1.9340000000000001E-5</v>
+      </c>
+      <c r="L110">
+        <v>3.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>4.03</v>
       </c>
       <c r="B111">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K111">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="L111">
+        <v>8.0600000000000012E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>0</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>4.03</v>
       </c>
       <c r="B113">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K113">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="L113">
+        <v>8.0600000000000012E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>15.71</v>
       </c>
       <c r="B114">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K114">
+        <v>1.571E-5</v>
+      </c>
+      <c r="L114">
+        <v>3.143E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>0</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>0</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>12.89</v>
       </c>
       <c r="B117">
         <v>25.79</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K117">
+        <v>1.289E-5</v>
+      </c>
+      <c r="L117">
+        <v>2.579E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>12.09</v>
       </c>
       <c r="B118">
         <v>24.18</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K118">
+        <v>1.2089999999999999E-5</v>
+      </c>
+      <c r="L118">
+        <v>2.418E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>0</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7.66</v>
       </c>
       <c r="B120">
         <v>15.31</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K120">
+        <v>7.6599999999999995E-6</v>
+      </c>
+      <c r="L120">
+        <v>1.5310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>18.53</v>
       </c>
       <c r="B121">
         <v>37.07</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K121">
+        <v>1.853E-5</v>
+      </c>
+      <c r="L121">
+        <v>3.7069999999999999E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>0</v>
       </c>
       <c r="B122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>0</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>15.31</v>
       </c>
       <c r="B124">
         <v>30.62</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K124">
+        <v>1.5310000000000001E-5</v>
+      </c>
+      <c r="L124">
+        <v>3.0620000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11.68</v>
       </c>
       <c r="B125">
         <v>23.37</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K125">
+        <v>1.168E-5</v>
+      </c>
+      <c r="L125">
+        <v>2.3370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>0</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1.21</v>
       </c>
       <c r="B127">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K127">
+        <v>1.2100000000000001E-6</v>
+      </c>
+      <c r="L127">
+        <v>2.4199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>21.76</v>
       </c>
       <c r="B128">
         <v>43.52</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K128">
+        <v>2.1760000000000002E-5</v>
+      </c>
+      <c r="L128">
+        <v>4.3520000000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6.85</v>
       </c>
       <c r="B129">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K129">
+        <v>6.8499999999999996E-6</v>
+      </c>
+      <c r="L129">
+        <v>1.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>0</v>
       </c>
       <c r="B130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>14.91</v>
       </c>
       <c r="B131">
         <v>29.82</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K131">
+        <v>1.491E-5</v>
+      </c>
+      <c r="L131">
+        <v>2.9819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>13.3</v>
       </c>
       <c r="B132">
         <v>26.59</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K132">
+        <v>1.3300000000000001E-5</v>
+      </c>
+      <c r="L132">
+        <v>2.6589999999999999E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>0</v>
       </c>
       <c r="B133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6.45</v>
       </c>
       <c r="B134">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K134">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L134">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>23.77</v>
       </c>
       <c r="B135">
         <v>47.55</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K135">
+        <v>2.3770000000000001E-5</v>
+      </c>
+      <c r="L135">
+        <v>4.7549999999999995E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>8.4600000000000009</v>
       </c>
       <c r="B136">
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K136">
+        <v>8.4600000000000003E-6</v>
+      </c>
+      <c r="L136">
+        <v>1.6920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>0</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>10.48</v>
       </c>
       <c r="B138">
         <v>20.95</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K138">
+        <v>1.048E-5</v>
+      </c>
+      <c r="L138">
+        <v>2.095E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>24.58</v>
       </c>
       <c r="B139">
         <v>49.16</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K139">
+        <v>2.4579999999999998E-5</v>
+      </c>
+      <c r="L139">
+        <v>4.9159999999999995E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2.42</v>
       </c>
       <c r="B140">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K140">
+        <v>2.4200000000000001E-6</v>
+      </c>
+      <c r="L140">
+        <v>4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>0</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>22.97</v>
       </c>
       <c r="B142">
         <v>45.93</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K142">
+        <v>2.2969999999999999E-5</v>
+      </c>
+      <c r="L142">
+        <v>4.5929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>19.34</v>
       </c>
       <c r="B143">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K143">
+        <v>1.9340000000000001E-5</v>
+      </c>
+      <c r="L143">
+        <v>3.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.61</v>
       </c>
       <c r="B144">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K144">
+        <v>1.61E-6</v>
+      </c>
+      <c r="L144">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6.45</v>
       </c>
       <c r="B145">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K145">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L145">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>24.98</v>
       </c>
       <c r="B146">
         <v>49.96</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K146">
+        <v>2.4980000000000001E-5</v>
+      </c>
+      <c r="L146">
+        <v>4.9959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3.63</v>
       </c>
       <c r="B147">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K147">
+        <v>3.63E-6</v>
+      </c>
+      <c r="L147">
+        <v>7.2500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>4.03</v>
       </c>
       <c r="B148">
         <v>8.06</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K148">
+        <v>4.0300000000000004E-6</v>
+      </c>
+      <c r="L148">
+        <v>8.0600000000000012E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>19.739999999999998</v>
       </c>
       <c r="B149">
         <v>39.49</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K149">
+        <v>1.9739999999999997E-5</v>
+      </c>
+      <c r="L149">
+        <v>3.9490000000000004E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>20.149999999999999</v>
       </c>
       <c r="B150">
         <v>40.29</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K150">
+        <v>2.0149999999999999E-5</v>
+      </c>
+      <c r="L150">
+        <v>4.0289999999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>0</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6.85</v>
       </c>
       <c r="B152">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K152">
+        <v>6.8499999999999996E-6</v>
+      </c>
+      <c r="L152">
+        <v>1.3699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>24.98</v>
       </c>
       <c r="B153">
         <v>49.96</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K153">
+        <v>2.4980000000000001E-5</v>
+      </c>
+      <c r="L153">
+        <v>4.9959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>13.7</v>
       </c>
       <c r="B154">
         <v>27.4</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K154">
+        <v>1.3699999999999999E-5</v>
+      </c>
+      <c r="L154">
+        <v>2.7399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>0</v>
       </c>
       <c r="B155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>15.71</v>
       </c>
       <c r="B156">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K156">
+        <v>1.571E-5</v>
+      </c>
+      <c r="L156">
+        <v>3.143E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>26.19</v>
       </c>
       <c r="B157">
         <v>52.38</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K157">
+        <v>2.6190000000000002E-5</v>
+      </c>
+      <c r="L157">
+        <v>5.2380000000000003E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>9.27</v>
       </c>
       <c r="B158">
         <v>18.53</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K158">
+        <v>9.2699999999999993E-6</v>
+      </c>
+      <c r="L158">
+        <v>1.8530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>29.82</v>
       </c>
       <c r="B159">
         <v>59.63</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K159">
+        <v>2.9819999999999999E-5</v>
+      </c>
+      <c r="L159">
+        <v>5.9630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>32.64</v>
       </c>
       <c r="B160">
         <v>65.27</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K160">
+        <v>3.2639999999999999E-5</v>
+      </c>
+      <c r="L160">
+        <v>6.5269999999999995E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10.07</v>
       </c>
       <c r="B161">
         <v>20.149999999999999</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K161">
+        <v>1.007E-5</v>
+      </c>
+      <c r="L161">
+        <v>2.0149999999999998E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>0</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>20.95</v>
       </c>
       <c r="B163">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K163">
+        <v>2.0949999999999998E-5</v>
+      </c>
+      <c r="L163">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>32.229999999999997</v>
       </c>
       <c r="B164">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K164">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L164">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>6.45</v>
       </c>
       <c r="B165">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K165">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L165">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8.86</v>
       </c>
       <c r="B166">
         <v>17.73</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K166">
+        <v>8.8599999999999999E-6</v>
+      </c>
+      <c r="L166">
+        <v>1.7729999999999999E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>22.16</v>
       </c>
       <c r="B167">
         <v>44.32</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K167">
+        <v>2.2160000000000001E-5</v>
+      </c>
+      <c r="L167">
+        <v>4.4319999999999998E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>21.76</v>
       </c>
       <c r="B168">
         <v>43.52</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K168">
+        <v>2.1760000000000002E-5</v>
+      </c>
+      <c r="L168">
+        <v>4.3520000000000003E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1.61</v>
       </c>
       <c r="B169">
         <v>3.22</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K169">
+        <v>1.61E-6</v>
+      </c>
+      <c r="L169">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>18.940000000000001</v>
       </c>
       <c r="B170">
         <v>37.880000000000003</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K170">
+        <v>1.8940000000000002E-5</v>
+      </c>
+      <c r="L170">
+        <v>3.7880000000000004E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>27</v>
       </c>
       <c r="B171">
         <v>53.99</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K171">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="L171">
+        <v>5.3990000000000003E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>2.82</v>
       </c>
       <c r="B172">
         <v>5.64</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K172">
+        <v>2.8199999999999997E-6</v>
+      </c>
+      <c r="L172">
+        <v>5.64E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>15.71</v>
       </c>
       <c r="B173">
         <v>31.43</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K173">
+        <v>1.571E-5</v>
+      </c>
+      <c r="L173">
+        <v>3.143E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>27.8</v>
       </c>
       <c r="B174">
         <v>55.6</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K174">
+        <v>2.7800000000000001E-5</v>
+      </c>
+      <c r="L174">
+        <v>5.5600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>19.739999999999998</v>
       </c>
       <c r="B175">
         <v>39.49</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K175">
+        <v>1.9739999999999997E-5</v>
+      </c>
+      <c r="L175">
+        <v>3.9490000000000004E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>6.45</v>
       </c>
       <c r="B176">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K176">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L176">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>25.38</v>
       </c>
       <c r="B177">
         <v>50.77</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K177">
+        <v>2.5379999999999998E-5</v>
+      </c>
+      <c r="L177">
+        <v>5.0770000000000003E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>31.43</v>
       </c>
       <c r="B178">
         <v>62.86</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K178">
+        <v>3.1430000000000002E-5</v>
+      </c>
+      <c r="L178">
+        <v>6.2859999999999999E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>12.49</v>
       </c>
       <c r="B179">
         <v>24.98</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K179">
+        <v>1.2490000000000001E-5</v>
+      </c>
+      <c r="L179">
+        <v>2.4979999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11.68</v>
       </c>
       <c r="B180">
         <v>23.37</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K180">
+        <v>1.168E-5</v>
+      </c>
+      <c r="L180">
+        <v>2.3370000000000002E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>25.38</v>
       </c>
       <c r="B181">
         <v>50.77</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K181">
+        <v>2.5379999999999998E-5</v>
+      </c>
+      <c r="L181">
+        <v>5.0770000000000003E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>31.43</v>
       </c>
       <c r="B182">
         <v>62.86</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K182">
+        <v>3.1430000000000002E-5</v>
+      </c>
+      <c r="L182">
+        <v>6.2859999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6.45</v>
       </c>
       <c r="B183">
         <v>12.89</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K183">
+        <v>6.4500000000000001E-6</v>
+      </c>
+      <c r="L183">
+        <v>1.289E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>25.79</v>
       </c>
       <c r="B184">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K184">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L184">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>31.83</v>
       </c>
       <c r="B185">
         <v>63.66</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K185">
+        <v>3.1829999999999998E-5</v>
+      </c>
+      <c r="L185">
+        <v>6.3659999999999994E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>8.4600000000000009</v>
       </c>
       <c r="B186">
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K186">
+        <v>8.4600000000000003E-6</v>
+      </c>
+      <c r="L186">
+        <v>1.6920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>19.34</v>
       </c>
       <c r="B187">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K187">
+        <v>1.9340000000000001E-5</v>
+      </c>
+      <c r="L187">
+        <v>3.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>28.61</v>
       </c>
       <c r="B188">
         <v>57.22</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K188">
+        <v>2.8609999999999999E-5</v>
+      </c>
+      <c r="L188">
+        <v>5.722E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>30.22</v>
       </c>
       <c r="B189">
         <v>60.44</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K189">
+        <v>3.0219999999999999E-5</v>
+      </c>
+      <c r="L189">
+        <v>6.0440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>9.27</v>
       </c>
       <c r="B190">
         <v>18.53</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K190">
+        <v>9.2699999999999993E-6</v>
+      </c>
+      <c r="L190">
+        <v>1.8530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>20.95</v>
       </c>
       <c r="B191">
         <v>41.9</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K191">
+        <v>2.0949999999999998E-5</v>
+      </c>
+      <c r="L191">
+        <v>4.19E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>32.229999999999997</v>
       </c>
       <c r="B192">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K192">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L192">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>32.229999999999997</v>
       </c>
       <c r="B193">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K193">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L193">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>16.920000000000002</v>
       </c>
       <c r="B194">
         <v>33.85</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K194">
+        <v>1.6920000000000001E-5</v>
+      </c>
+      <c r="L194">
+        <v>3.3849999999999998E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>25.79</v>
       </c>
       <c r="B195">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K195">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L195">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>33.85</v>
       </c>
       <c r="B196">
         <v>67.69</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K196">
+        <v>3.3850000000000003E-5</v>
+      </c>
+      <c r="L196">
+        <v>6.769E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>9.27</v>
       </c>
       <c r="B197">
         <v>18.53</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K197">
+        <v>9.2699999999999993E-6</v>
+      </c>
+      <c r="L197">
+        <v>1.8530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>25.79</v>
       </c>
       <c r="B198">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K198">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L198">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>34.25</v>
       </c>
       <c r="B199">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K199">
+        <v>3.4249999999999999E-5</v>
+      </c>
+      <c r="L199">
+        <v>6.8500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>19.739999999999998</v>
       </c>
       <c r="B200">
         <v>39.49</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K200">
+        <v>1.9739999999999997E-5</v>
+      </c>
+      <c r="L200">
+        <v>3.9490000000000004E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19.34</v>
       </c>
       <c r="B201">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K201">
+        <v>1.9340000000000001E-5</v>
+      </c>
+      <c r="L201">
+        <v>3.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>29.41</v>
       </c>
       <c r="B202">
         <v>58.83</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K202">
+        <v>2.9410000000000001E-5</v>
+      </c>
+      <c r="L202">
+        <v>5.883E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>34.65</v>
       </c>
       <c r="B203">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K203">
+        <v>3.4649999999999995E-5</v>
+      </c>
+      <c r="L203">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>8.4600000000000009</v>
       </c>
       <c r="B204">
         <v>16.920000000000002</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K204">
+        <v>8.4600000000000003E-6</v>
+      </c>
+      <c r="L204">
+        <v>1.6920000000000001E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>22.97</v>
       </c>
       <c r="B205">
         <v>45.93</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K205">
+        <v>2.2969999999999999E-5</v>
+      </c>
+      <c r="L205">
+        <v>4.5929999999999999E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>32.229999999999997</v>
       </c>
       <c r="B206">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K206">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L206">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>32.64</v>
       </c>
       <c r="B207">
         <v>65.27</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K207">
+        <v>3.2639999999999999E-5</v>
+      </c>
+      <c r="L207">
+        <v>6.5269999999999995E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>19.34</v>
       </c>
       <c r="B208">
         <v>38.68</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K208">
+        <v>1.9340000000000001E-5</v>
+      </c>
+      <c r="L208">
+        <v>3.8679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>33.44</v>
       </c>
       <c r="B209">
         <v>66.89</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K209">
+        <v>3.3439999999999998E-5</v>
+      </c>
+      <c r="L209">
+        <v>6.6890000000000005E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>41.1</v>
       </c>
       <c r="B210">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K210">
+        <v>4.1100000000000003E-5</v>
+      </c>
+      <c r="L210">
+        <v>8.2200000000000009E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>10.88</v>
       </c>
       <c r="B211">
         <v>21.76</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K211">
+        <v>1.0880000000000001E-5</v>
+      </c>
+      <c r="L211">
+        <v>2.1760000000000002E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>25.79</v>
       </c>
       <c r="B212">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K212">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L212">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>36.26</v>
       </c>
       <c r="B213">
         <v>72.53</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K213">
+        <v>3.6259999999999995E-5</v>
+      </c>
+      <c r="L213">
+        <v>7.2529999999999997E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>38.68</v>
       </c>
       <c r="B214">
         <v>77.36</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K214">
+        <v>3.8680000000000002E-5</v>
+      </c>
+      <c r="L214">
+        <v>7.7359999999999998E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>22.16</v>
       </c>
       <c r="B215">
         <v>44.32</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K215">
+        <v>2.2160000000000001E-5</v>
+      </c>
+      <c r="L215">
+        <v>4.4319999999999998E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>30.22</v>
       </c>
       <c r="B216">
         <v>60.44</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K216">
+        <v>3.0219999999999999E-5</v>
+      </c>
+      <c r="L216">
+        <v>6.0440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>32.229999999999997</v>
       </c>
       <c r="B217">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K217">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L217">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>25.79</v>
       </c>
       <c r="B218">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K218">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L218">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>24.58</v>
       </c>
       <c r="B219">
         <v>49.16</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K219">
+        <v>2.4579999999999998E-5</v>
+      </c>
+      <c r="L219">
+        <v>4.9159999999999995E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>36.67</v>
       </c>
       <c r="B220">
         <v>73.33</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K220">
+        <v>3.667E-5</v>
+      </c>
+      <c r="L220">
+        <v>7.3329999999999992E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>33.44</v>
       </c>
       <c r="B221">
         <v>66.89</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K221">
+        <v>3.3439999999999998E-5</v>
+      </c>
+      <c r="L221">
+        <v>6.6890000000000005E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>24.98</v>
       </c>
       <c r="B222">
         <v>49.96</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K222">
+        <v>2.4980000000000001E-5</v>
+      </c>
+      <c r="L222">
+        <v>4.9959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>31.03</v>
       </c>
       <c r="B223">
         <v>62.05</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K223">
+        <v>3.1029999999999999E-5</v>
+      </c>
+      <c r="L223">
+        <v>6.2049999999999994E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>33.04</v>
       </c>
       <c r="B224">
         <v>66.08</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K224">
+        <v>3.3040000000000002E-5</v>
+      </c>
+      <c r="L224">
+        <v>6.608E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>27</v>
       </c>
       <c r="B225">
         <v>53.99</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K225">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="L225">
+        <v>5.3990000000000003E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>28.61</v>
       </c>
       <c r="B226">
         <v>57.22</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K226">
+        <v>2.8609999999999999E-5</v>
+      </c>
+      <c r="L226">
+        <v>5.722E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>41.1</v>
       </c>
       <c r="B227">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K227">
+        <v>4.1100000000000003E-5</v>
+      </c>
+      <c r="L227">
+        <v>8.2200000000000009E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>40.700000000000003</v>
       </c>
       <c r="B228">
         <v>81.39</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K228">
+        <v>4.07E-5</v>
+      </c>
+      <c r="L228">
+        <v>8.1390000000000004E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>25.79</v>
       </c>
       <c r="B229">
         <v>51.58</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K229">
+        <v>2.5789999999999999E-5</v>
+      </c>
+      <c r="L229">
+        <v>5.1580000000000001E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>36.67</v>
       </c>
       <c r="B230">
         <v>73.33</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K230">
+        <v>3.667E-5</v>
+      </c>
+      <c r="L230">
+        <v>7.3329999999999992E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>37.07</v>
       </c>
       <c r="B231">
         <v>74.14</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K231">
+        <v>3.7070000000000003E-5</v>
+      </c>
+      <c r="L231">
+        <v>7.4139999999999998E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>29.82</v>
       </c>
       <c r="B232">
         <v>59.63</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K232">
+        <v>2.9819999999999999E-5</v>
+      </c>
+      <c r="L232">
+        <v>5.9630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>32.229999999999997</v>
       </c>
       <c r="B233">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K233">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L233">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>39.89</v>
       </c>
       <c r="B234">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K234">
+        <v>3.9889999999999999E-5</v>
+      </c>
+      <c r="L234">
+        <v>7.9780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>39.89</v>
       </c>
       <c r="B235">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K235">
+        <v>3.9889999999999999E-5</v>
+      </c>
+      <c r="L235">
+        <v>7.9780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>28.61</v>
       </c>
       <c r="B236">
         <v>57.22</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K236">
+        <v>2.8609999999999999E-5</v>
+      </c>
+      <c r="L236">
+        <v>5.722E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>33.44</v>
       </c>
       <c r="B237">
         <v>66.89</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K237">
+        <v>3.3439999999999998E-5</v>
+      </c>
+      <c r="L237">
+        <v>6.6890000000000005E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>39.49</v>
       </c>
       <c r="B238">
         <v>78.97</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K238">
+        <v>3.9490000000000003E-5</v>
+      </c>
+      <c r="L238">
+        <v>7.8969999999999999E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>39.08</v>
       </c>
       <c r="B239">
         <v>78.17</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K239">
+        <v>3.9079999999999999E-5</v>
+      </c>
+      <c r="L239">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>32.229999999999997</v>
       </c>
       <c r="B240">
         <v>64.47</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K240">
+        <v>3.2229999999999995E-5</v>
+      </c>
+      <c r="L240">
+        <v>6.447E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>35.86</v>
       </c>
       <c r="B241">
         <v>71.72</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K241">
+        <v>3.5859999999999999E-5</v>
+      </c>
+      <c r="L241">
+        <v>7.1719999999999992E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>36.67</v>
       </c>
       <c r="B242">
         <v>73.33</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K242">
+        <v>3.667E-5</v>
+      </c>
+      <c r="L242">
+        <v>7.3329999999999992E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>31.03</v>
       </c>
       <c r="B243">
         <v>62.05</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K243">
+        <v>3.1029999999999999E-5</v>
+      </c>
+      <c r="L243">
+        <v>6.2049999999999994E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>39.89</v>
       </c>
       <c r="B244">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K244">
+        <v>3.9889999999999999E-5</v>
+      </c>
+      <c r="L244">
+        <v>7.9780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>39.89</v>
       </c>
       <c r="B245">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K245">
+        <v>3.9889999999999999E-5</v>
+      </c>
+      <c r="L245">
+        <v>7.9780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>39.08</v>
       </c>
       <c r="B246">
         <v>78.17</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K246">
+        <v>3.9079999999999999E-5</v>
+      </c>
+      <c r="L246">
+        <v>7.8170000000000003E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>35.049999999999997</v>
       </c>
       <c r="B247">
         <v>70.11</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K247">
+        <v>3.5049999999999998E-5</v>
+      </c>
+      <c r="L247">
+        <v>7.0110000000000006E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>34.65</v>
       </c>
       <c r="B248">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K248">
+        <v>3.4649999999999995E-5</v>
+      </c>
+      <c r="L248">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>41.5</v>
       </c>
       <c r="B249">
         <v>83</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K249">
+        <v>4.1499999999999999E-5</v>
+      </c>
+      <c r="L249">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>36.67</v>
       </c>
       <c r="B250">
         <v>73.33</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K250">
+        <v>3.667E-5</v>
+      </c>
+      <c r="L250">
+        <v>7.3329999999999992E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>37.880000000000003</v>
       </c>
       <c r="B251">
         <v>75.75</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K251">
+        <v>3.7880000000000003E-5</v>
+      </c>
+      <c r="L251">
+        <v>7.5749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>34.25</v>
       </c>
       <c r="B252">
         <v>68.5</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K252">
+        <v>3.4249999999999999E-5</v>
+      </c>
+      <c r="L252">
+        <v>6.8500000000000005E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>39.89</v>
       </c>
       <c r="B253">
         <v>79.78</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K253">
+        <v>3.9889999999999999E-5</v>
+      </c>
+      <c r="L253">
+        <v>7.9780000000000004E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>34.65</v>
       </c>
       <c r="B254">
         <v>69.3</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K254">
+        <v>3.4649999999999995E-5</v>
+      </c>
+      <c r="L254">
+        <v>6.93E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>37.880000000000003</v>
       </c>
       <c r="B255">
         <v>75.75</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="K255">
+        <v>3.7880000000000003E-5</v>
+      </c>
+      <c r="L255">
+        <v>7.5749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>41.5</v>
       </c>
       <c r="B256">
         <v>83</v>
+      </c>
+      <c r="K256">
+        <v>4.1499999999999999E-5</v>
+      </c>
+      <c r="L256">
+        <v>8.3000000000000004E-2</v>
       </c>
     </row>
   </sheetData>
